--- a/biology/Zoologie/Allothele/Allothele.xlsx
+++ b/biology/Zoologie/Allothele/Allothele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allothele est un genre d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allothele est un genre d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.0, 22/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.0, 22/06/2020) :
 Allothele australis (Purcell, 1903)
 Allothele caffer (Pocock, 1902)
 Allothele malawi Coyle, 1984
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
